--- a/Output/Drive/7. Procedimientos Administrativos.xlsx
+++ b/Output/Drive/7. Procedimientos Administrativos.xlsx
@@ -12,14 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t xml:space="preserve">CVE_MUN</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Procedimientos Administrativos</t>
   </si>
   <si>
@@ -35,9 +32,6 @@
     <t xml:space="preserve">13001</t>
   </si>
   <si>
-    <t xml:space="preserve">Acatlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
@@ -47,18 +41,12 @@
     <t xml:space="preserve">13002</t>
   </si>
   <si>
-    <t xml:space="preserve">Acaxochitlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">113</t>
   </si>
   <si>
     <t xml:space="preserve">13003</t>
   </si>
   <si>
-    <t xml:space="preserve">Actopan</t>
-  </si>
-  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -71,18 +59,12 @@
     <t xml:space="preserve">13004</t>
   </si>
   <si>
-    <t xml:space="preserve">Agua Blanca de Iturbide</t>
-  </si>
-  <si>
     <t xml:space="preserve">70</t>
   </si>
   <si>
     <t xml:space="preserve">13005</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajacuba</t>
-  </si>
-  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
@@ -92,27 +74,18 @@
     <t xml:space="preserve">13006</t>
   </si>
   <si>
-    <t xml:space="preserve">Alfajayucan</t>
-  </si>
-  <si>
     <t xml:space="preserve">65</t>
   </si>
   <si>
     <t xml:space="preserve">13007</t>
   </si>
   <si>
-    <t xml:space="preserve">Almoloya</t>
-  </si>
-  <si>
     <t xml:space="preserve">160</t>
   </si>
   <si>
     <t xml:space="preserve">13008</t>
   </si>
   <si>
-    <t xml:space="preserve">Apan</t>
-  </si>
-  <si>
     <t xml:space="preserve">54</t>
   </si>
   <si>
@@ -122,9 +95,6 @@
     <t xml:space="preserve">13009</t>
   </si>
   <si>
-    <t xml:space="preserve">El Arenal</t>
-  </si>
-  <si>
     <t xml:space="preserve">38</t>
   </si>
   <si>
@@ -134,9 +104,6 @@
     <t xml:space="preserve">13010</t>
   </si>
   <si>
-    <t xml:space="preserve">Atitalaquia</t>
-  </si>
-  <si>
     <t xml:space="preserve">271</t>
   </si>
   <si>
@@ -146,18 +113,12 @@
     <t xml:space="preserve">13011</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlapexco</t>
-  </si>
-  <si>
     <t xml:space="preserve">172</t>
   </si>
   <si>
     <t xml:space="preserve">13012</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco el Grande</t>
-  </si>
-  <si>
     <t xml:space="preserve">151</t>
   </si>
   <si>
@@ -167,9 +128,6 @@
     <t xml:space="preserve">13013</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco de Tula</t>
-  </si>
-  <si>
     <t xml:space="preserve">239</t>
   </si>
   <si>
@@ -179,9 +137,6 @@
     <t xml:space="preserve">13014</t>
   </si>
   <si>
-    <t xml:space="preserve">Calnali</t>
-  </si>
-  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
@@ -191,27 +146,18 @@
     <t xml:space="preserve">13015</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardonal</t>
-  </si>
-  <si>
     <t xml:space="preserve">46</t>
   </si>
   <si>
     <t xml:space="preserve">13016</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuautepec de Hinojosa</t>
-  </si>
-  <si>
     <t xml:space="preserve">265</t>
   </si>
   <si>
     <t xml:space="preserve">13017</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapantongo</t>
-  </si>
-  <si>
     <t xml:space="preserve">19</t>
   </si>
   <si>
@@ -221,9 +167,6 @@
     <t xml:space="preserve">13018</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapulhuacán</t>
-  </si>
-  <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
@@ -233,24 +176,15 @@
     <t xml:space="preserve">13019</t>
   </si>
   <si>
-    <t xml:space="preserve">Chilcuautla</t>
-  </si>
-  <si>
     <t xml:space="preserve">71</t>
   </si>
   <si>
     <t xml:space="preserve">13020</t>
   </si>
   <si>
-    <t xml:space="preserve">Eloxochitlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13021</t>
   </si>
   <si>
-    <t xml:space="preserve">Emiliano Zapata</t>
-  </si>
-  <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
@@ -260,15 +194,9 @@
     <t xml:space="preserve">13022</t>
   </si>
   <si>
-    <t xml:space="preserve">Epazoyucan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13023</t>
   </si>
   <si>
-    <t xml:space="preserve">Francisco I. Madero</t>
-  </si>
-  <si>
     <t xml:space="preserve">24</t>
   </si>
   <si>
@@ -278,27 +206,18 @@
     <t xml:space="preserve">13024</t>
   </si>
   <si>
-    <t xml:space="preserve">Huasca de Ocampo</t>
-  </si>
-  <si>
     <t xml:space="preserve">132</t>
   </si>
   <si>
     <t xml:space="preserve">13025</t>
   </si>
   <si>
-    <t xml:space="preserve">Huautla</t>
-  </si>
-  <si>
     <t xml:space="preserve">79</t>
   </si>
   <si>
     <t xml:space="preserve">13026</t>
   </si>
   <si>
-    <t xml:space="preserve">Huazalingo</t>
-  </si>
-  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
@@ -308,27 +227,18 @@
     <t xml:space="preserve">13027</t>
   </si>
   <si>
-    <t xml:space="preserve">Huehuetla</t>
-  </si>
-  <si>
     <t xml:space="preserve">45</t>
   </si>
   <si>
     <t xml:space="preserve">13028</t>
   </si>
   <si>
-    <t xml:space="preserve">Huejutla de Reyes</t>
-  </si>
-  <si>
     <t xml:space="preserve">SD</t>
   </si>
   <si>
     <t xml:space="preserve">13029</t>
   </si>
   <si>
-    <t xml:space="preserve">Huichapan</t>
-  </si>
-  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
@@ -341,9 +251,6 @@
     <t xml:space="preserve">13030</t>
   </si>
   <si>
-    <t xml:space="preserve">Ixmiquilpan</t>
-  </si>
-  <si>
     <t xml:space="preserve">207</t>
   </si>
   <si>
@@ -353,81 +260,51 @@
     <t xml:space="preserve">13031</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacala de Ledezma</t>
-  </si>
-  <si>
     <t xml:space="preserve">13032</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaltocán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13033</t>
   </si>
   <si>
-    <t xml:space="preserve">Juárez Hidalgo</t>
-  </si>
-  <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">13034</t>
   </si>
   <si>
-    <t xml:space="preserve">Lolotla</t>
-  </si>
-  <si>
     <t xml:space="preserve">68</t>
   </si>
   <si>
     <t xml:space="preserve">13035</t>
   </si>
   <si>
-    <t xml:space="preserve">Metepec</t>
-  </si>
-  <si>
     <t xml:space="preserve">50</t>
   </si>
   <si>
     <t xml:space="preserve">13036</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Metzquititlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">16</t>
   </si>
   <si>
     <t xml:space="preserve">13037</t>
   </si>
   <si>
-    <t xml:space="preserve">Metztitlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">61</t>
   </si>
   <si>
     <t xml:space="preserve">13038</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Chico</t>
-  </si>
-  <si>
     <t xml:space="preserve">13039</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Monte</t>
-  </si>
-  <si>
     <t xml:space="preserve">86</t>
   </si>
   <si>
     <t xml:space="preserve">13040</t>
   </si>
   <si>
-    <t xml:space="preserve">La Misión</t>
-  </si>
-  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
@@ -437,18 +314,12 @@
     <t xml:space="preserve">13041</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixquiahuala de Juárez</t>
-  </si>
-  <si>
     <t xml:space="preserve">149</t>
   </si>
   <si>
     <t xml:space="preserve">13042</t>
   </si>
   <si>
-    <t xml:space="preserve">Molango de Escamilla</t>
-  </si>
-  <si>
     <t xml:space="preserve">28</t>
   </si>
   <si>
@@ -458,36 +329,24 @@
     <t xml:space="preserve">13043</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicolás Flores</t>
-  </si>
-  <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">13044</t>
   </si>
   <si>
-    <t xml:space="preserve">Nopala de Villagrán</t>
-  </si>
-  <si>
     <t xml:space="preserve">21</t>
   </si>
   <si>
     <t xml:space="preserve">13045</t>
   </si>
   <si>
-    <t xml:space="preserve">Omitlán de Juárez</t>
-  </si>
-  <si>
     <t xml:space="preserve">29</t>
   </si>
   <si>
     <t xml:space="preserve">13046</t>
   </si>
   <si>
-    <t xml:space="preserve">San Felipe Orizatlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">41</t>
   </si>
   <si>
@@ -497,18 +356,12 @@
     <t xml:space="preserve">13047</t>
   </si>
   <si>
-    <t xml:space="preserve">Pacula</t>
-  </si>
-  <si>
     <t xml:space="preserve">30</t>
   </si>
   <si>
     <t xml:space="preserve">13048</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca de Soto</t>
-  </si>
-  <si>
     <t xml:space="preserve">559</t>
   </si>
   <si>
@@ -518,84 +371,54 @@
     <t xml:space="preserve">13049</t>
   </si>
   <si>
-    <t xml:space="preserve">Pisaflores</t>
-  </si>
-  <si>
     <t xml:space="preserve">25</t>
   </si>
   <si>
     <t xml:space="preserve">13050</t>
   </si>
   <si>
-    <t xml:space="preserve">Progreso de Obregón</t>
-  </si>
-  <si>
     <t xml:space="preserve">285</t>
   </si>
   <si>
     <t xml:space="preserve">13051</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral de la Reforma</t>
-  </si>
-  <si>
     <t xml:space="preserve">1288</t>
   </si>
   <si>
     <t xml:space="preserve">13052</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Tlaxiaca</t>
-  </si>
-  <si>
     <t xml:space="preserve">673</t>
   </si>
   <si>
     <t xml:space="preserve">13053</t>
   </si>
   <si>
-    <t xml:space="preserve">San Bartolo Tutotepec</t>
-  </si>
-  <si>
     <t xml:space="preserve">55</t>
   </si>
   <si>
     <t xml:space="preserve">13054</t>
   </si>
   <si>
-    <t xml:space="preserve">San Salvador</t>
-  </si>
-  <si>
     <t xml:space="preserve">90</t>
   </si>
   <si>
     <t xml:space="preserve">13055</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago de Anaya</t>
-  </si>
-  <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">13056</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago Tulantepec de Lugo Guerrero</t>
-  </si>
-  <si>
     <t xml:space="preserve">13057</t>
   </si>
   <si>
-    <t xml:space="preserve">Singuilucan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13058</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasquillo</t>
-  </si>
-  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
@@ -605,39 +428,24 @@
     <t xml:space="preserve">13059</t>
   </si>
   <si>
-    <t xml:space="preserve">Tecozautla</t>
-  </si>
-  <si>
     <t xml:space="preserve">84</t>
   </si>
   <si>
     <t xml:space="preserve">13060</t>
   </si>
   <si>
-    <t xml:space="preserve">Tenango de Doria</t>
-  </si>
-  <si>
     <t xml:space="preserve">13061</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeapulco</t>
-  </si>
-  <si>
     <t xml:space="preserve">13062</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepehuacán de Guerrero</t>
-  </si>
-  <si>
     <t xml:space="preserve">157</t>
   </si>
   <si>
     <t xml:space="preserve">13063</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeji del Río de Ocampo</t>
-  </si>
-  <si>
     <t xml:space="preserve">179</t>
   </si>
   <si>
@@ -647,15 +455,9 @@
     <t xml:space="preserve">13064</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepetitlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13065</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetepango</t>
-  </si>
-  <si>
     <t xml:space="preserve">26</t>
   </si>
   <si>
@@ -665,36 +467,24 @@
     <t xml:space="preserve">13066</t>
   </si>
   <si>
-    <t xml:space="preserve">Villa de Tezontepec</t>
-  </si>
-  <si>
     <t xml:space="preserve">382</t>
   </si>
   <si>
     <t xml:space="preserve">13067</t>
   </si>
   <si>
-    <t xml:space="preserve">Tezontepec de Aldama</t>
-  </si>
-  <si>
     <t xml:space="preserve">62</t>
   </si>
   <si>
     <t xml:space="preserve">13068</t>
   </si>
   <si>
-    <t xml:space="preserve">Tianguistengo</t>
-  </si>
-  <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">13069</t>
   </si>
   <si>
-    <t xml:space="preserve">Tizayuca</t>
-  </si>
-  <si>
     <t xml:space="preserve">108</t>
   </si>
   <si>
@@ -704,9 +494,6 @@
     <t xml:space="preserve">13070</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuelilpan</t>
-  </si>
-  <si>
     <t xml:space="preserve">304</t>
   </si>
   <si>
@@ -716,33 +503,21 @@
     <t xml:space="preserve">13071</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuiltepa</t>
-  </si>
-  <si>
     <t xml:space="preserve">13072</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanalapa</t>
-  </si>
-  <si>
     <t xml:space="preserve">42</t>
   </si>
   <si>
     <t xml:space="preserve">13073</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanchinol</t>
-  </si>
-  <si>
     <t xml:space="preserve">111</t>
   </si>
   <si>
     <t xml:space="preserve">13074</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcoapan</t>
-  </si>
-  <si>
     <t xml:space="preserve">58</t>
   </si>
   <si>
@@ -752,18 +527,12 @@
     <t xml:space="preserve">13075</t>
   </si>
   <si>
-    <t xml:space="preserve">Tolcayuca</t>
-  </si>
-  <si>
     <t xml:space="preserve">120</t>
   </si>
   <si>
     <t xml:space="preserve">13076</t>
   </si>
   <si>
-    <t xml:space="preserve">Tula de Allende</t>
-  </si>
-  <si>
     <t xml:space="preserve">352</t>
   </si>
   <si>
@@ -773,9 +542,6 @@
     <t xml:space="preserve">13077</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo de Bravo</t>
-  </si>
-  <si>
     <t xml:space="preserve">122</t>
   </si>
   <si>
@@ -785,36 +551,24 @@
     <t xml:space="preserve">13078</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochiatipan</t>
-  </si>
-  <si>
     <t xml:space="preserve">175</t>
   </si>
   <si>
     <t xml:space="preserve">13079</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochicoatlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">13080</t>
   </si>
   <si>
-    <t xml:space="preserve">Yahualica</t>
-  </si>
-  <si>
     <t xml:space="preserve">87</t>
   </si>
   <si>
     <t xml:space="preserve">13081</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacualtipán de Ángeles</t>
-  </si>
-  <si>
     <t xml:space="preserve">115</t>
   </si>
   <si>
@@ -824,22 +578,13 @@
     <t xml:space="preserve">13082</t>
   </si>
   <si>
-    <t xml:space="preserve">Zapotlán de Juárez</t>
-  </si>
-  <si>
     <t xml:space="preserve">13083</t>
   </si>
   <si>
-    <t xml:space="preserve">Zempoala</t>
-  </si>
-  <si>
     <t xml:space="preserve">51</t>
   </si>
   <si>
     <t xml:space="preserve">13084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimapán</t>
   </si>
   <si>
     <t xml:space="preserve">135</t>
@@ -1190,1688 +935,1433 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
         <v>113</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1246</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B5" t="n">
         <v>70</v>
       </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B6" t="n">
         <v>62</v>
       </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
         <v>71</v>
       </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="B8" t="n">
         <v>160</v>
       </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B9" t="n">
         <v>471</v>
       </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="n">
+        <v>26</v>
+      </c>
+      <c r="B10" t="n">
         <v>208</v>
       </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n">
         <v>713</v>
       </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="n">
+        <v>32</v>
+      </c>
+      <c r="B12" t="n">
         <v>172</v>
       </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="n">
+        <v>34</v>
+      </c>
+      <c r="B13" t="n">
         <v>414</v>
       </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="n">
+        <v>37</v>
+      </c>
+      <c r="B14" t="n">
         <v>799</v>
       </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="n">
+        <v>40</v>
+      </c>
+      <c r="B15" t="n">
         <v>64</v>
       </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="n">
+        <v>43</v>
+      </c>
+      <c r="B16" t="n">
         <v>46</v>
       </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="n">
+        <v>45</v>
+      </c>
+      <c r="B17" t="n">
         <v>265</v>
       </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="n">
+        <v>47</v>
+      </c>
+      <c r="B18" t="n">
         <v>54</v>
       </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="n">
+        <v>50</v>
+      </c>
+      <c r="B19" t="n">
         <v>121</v>
       </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="n">
+        <v>53</v>
+      </c>
+      <c r="B20" t="n">
         <v>71</v>
       </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="n">
+        <v>55</v>
+      </c>
+      <c r="B21" t="n">
         <v>11</v>
       </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="n">
+        <v>56</v>
+      </c>
+      <c r="B22" t="n">
         <v>198</v>
       </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="n">
+        <v>59</v>
+      </c>
+      <c r="B23" t="n">
         <v>71</v>
       </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B24" t="n">
         <v>287</v>
       </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" t="n">
+        <v>63</v>
+      </c>
+      <c r="B25" t="n">
         <v>132</v>
       </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" t="n">
+        <v>65</v>
+      </c>
+      <c r="B26" t="n">
         <v>308</v>
       </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="n">
+        <v>67</v>
+      </c>
+      <c r="B27" t="n">
         <v>37</v>
       </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" t="n">
+        <v>70</v>
+      </c>
+      <c r="B28" t="n">
         <v>127</v>
       </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" t="n">
+        <v>72</v>
+      </c>
+      <c r="B29" t="n">
         <v>1407</v>
       </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" t="n">
+        <v>74</v>
+      </c>
+      <c r="B30" t="n">
         <v>574</v>
       </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" t="n">
+        <v>78</v>
+      </c>
+      <c r="B31" t="n">
         <v>643</v>
       </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" t="n">
+        <v>81</v>
+      </c>
+      <c r="B32" t="n">
         <v>54</v>
       </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" t="n">
+        <v>82</v>
+      </c>
+      <c r="B33" t="n">
         <v>75</v>
       </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" t="n">
+        <v>83</v>
+      </c>
+      <c r="B34" t="n">
         <v>10</v>
       </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" t="n">
+        <v>85</v>
+      </c>
+      <c r="B35" t="n">
         <v>68</v>
       </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" t="n">
+        <v>87</v>
+      </c>
+      <c r="B36" t="n">
         <v>50</v>
       </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" t="n">
+        <v>89</v>
+      </c>
+      <c r="B37" t="n">
         <v>21</v>
       </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" t="n">
+        <v>91</v>
+      </c>
+      <c r="B38" t="n">
         <v>67</v>
       </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" t="n">
+        <v>93</v>
+      </c>
+      <c r="B39" t="n">
         <v>1</v>
       </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" t="n">
+        <v>94</v>
+      </c>
+      <c r="B40" t="n">
         <v>86</v>
       </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" t="n">
+        <v>96</v>
+      </c>
+      <c r="B41" t="n">
         <v>20</v>
       </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" t="n">
+        <v>99</v>
+      </c>
+      <c r="B42" t="n">
         <v>176</v>
       </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" t="n">
+        <v>101</v>
+      </c>
+      <c r="B43" t="n">
         <v>133</v>
       </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" t="n">
+        <v>104</v>
+      </c>
+      <c r="B44" t="n">
         <v>11</v>
       </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" t="n">
+        <v>106</v>
+      </c>
+      <c r="B45" t="n">
         <v>32</v>
       </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" t="n">
+        <v>108</v>
+      </c>
+      <c r="B46" t="n">
         <v>32</v>
       </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" t="n">
+        <v>110</v>
+      </c>
+      <c r="B47" t="n">
         <v>195</v>
       </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="E47" t="s">
-        <v>158</v>
-      </c>
-      <c r="F47" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>160</v>
-      </c>
-      <c r="B48" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" t="n">
+        <v>113</v>
+      </c>
+      <c r="B48" t="n">
         <v>39</v>
       </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" t="n">
+        <v>115</v>
+      </c>
+      <c r="B49" t="n">
         <v>4528</v>
       </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>165</v>
-      </c>
-      <c r="F49" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" t="n">
+        <v>118</v>
+      </c>
+      <c r="B50" t="n">
         <v>31</v>
       </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>170</v>
-      </c>
-      <c r="B51" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" t="n">
+        <v>120</v>
+      </c>
+      <c r="B51" t="n">
         <v>323</v>
       </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" t="s">
-        <v>174</v>
-      </c>
-      <c r="C52" t="n">
+        <v>122</v>
+      </c>
+      <c r="B52" t="n">
         <v>1548</v>
       </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" t="s">
-        <v>177</v>
-      </c>
-      <c r="C53" t="n">
+        <v>124</v>
+      </c>
+      <c r="B53" t="n">
         <v>729</v>
       </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>179</v>
-      </c>
-      <c r="B54" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" t="n">
+        <v>126</v>
+      </c>
+      <c r="B54" t="n">
         <v>322</v>
       </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>182</v>
-      </c>
-      <c r="B55" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" t="n">
+        <v>128</v>
+      </c>
+      <c r="B55" t="n">
         <v>120</v>
       </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="E55" t="s">
-        <v>162</v>
-      </c>
-      <c r="F55" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>185</v>
-      </c>
-      <c r="B56" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" t="n">
+        <v>130</v>
+      </c>
+      <c r="B56" t="n">
         <v>14</v>
       </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>188</v>
-      </c>
-      <c r="B57" t="s">
-        <v>189</v>
-      </c>
-      <c r="C57" t="n">
+        <v>132</v>
+      </c>
+      <c r="B57" t="n">
         <v>0</v>
       </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>190</v>
-      </c>
-      <c r="B58" t="s">
-        <v>191</v>
-      </c>
-      <c r="C58" t="n">
+        <v>133</v>
+      </c>
+      <c r="B58" t="n">
         <v>5</v>
       </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>192</v>
-      </c>
-      <c r="B59" t="s">
-        <v>193</v>
-      </c>
-      <c r="C59" t="n">
+        <v>134</v>
+      </c>
+      <c r="B59" t="n">
         <v>68</v>
       </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F59" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>196</v>
-      </c>
-      <c r="B60" t="s">
-        <v>197</v>
-      </c>
-      <c r="C60" t="n">
+        <v>137</v>
+      </c>
+      <c r="B60" t="n">
         <v>86</v>
       </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="E60" t="s">
         <v>138</v>
       </c>
-      <c r="F60" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>199</v>
-      </c>
-      <c r="B61" t="s">
-        <v>200</v>
-      </c>
-      <c r="C61" t="n">
+        <v>139</v>
+      </c>
+      <c r="B61" t="n">
         <v>30</v>
       </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>201</v>
-      </c>
-      <c r="B62" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" t="n">
+        <v>140</v>
+      </c>
+      <c r="B62" t="n">
         <v>0</v>
       </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>203</v>
-      </c>
-      <c r="B63" t="s">
-        <v>204</v>
-      </c>
-      <c r="C63" t="n">
+        <v>141</v>
+      </c>
+      <c r="B63" t="n">
         <v>157</v>
       </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>206</v>
-      </c>
-      <c r="B64" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" t="n">
+        <v>143</v>
+      </c>
+      <c r="B64" t="n">
         <v>1179</v>
       </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="E64" t="s">
-        <v>208</v>
-      </c>
-      <c r="F64" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>210</v>
-      </c>
-      <c r="B65" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65" t="n">
+        <v>146</v>
+      </c>
+      <c r="B65" t="n">
         <v>12</v>
       </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
-      </c>
-      <c r="F65" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>212</v>
-      </c>
-      <c r="B66" t="s">
-        <v>213</v>
-      </c>
-      <c r="C66" t="n">
+        <v>147</v>
+      </c>
+      <c r="B66" t="n">
         <v>193</v>
       </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
-      </c>
-      <c r="F66" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>216</v>
-      </c>
-      <c r="B67" t="s">
-        <v>217</v>
-      </c>
-      <c r="C67" t="n">
+        <v>150</v>
+      </c>
+      <c r="B67" t="n">
         <v>382</v>
       </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>219</v>
-      </c>
-      <c r="B68" t="s">
-        <v>220</v>
-      </c>
-      <c r="C68" t="n">
+        <v>152</v>
+      </c>
+      <c r="B68" t="n">
         <v>347</v>
       </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="E68" t="s">
-        <v>221</v>
-      </c>
-      <c r="F68" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>222</v>
-      </c>
-      <c r="B69" t="s">
-        <v>223</v>
-      </c>
-      <c r="C69" t="n">
+        <v>154</v>
+      </c>
+      <c r="B69" t="n">
         <v>17</v>
       </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>225</v>
-      </c>
-      <c r="B70" t="s">
-        <v>226</v>
-      </c>
-      <c r="C70" t="n">
+        <v>156</v>
+      </c>
+      <c r="B70" t="n">
         <v>830</v>
       </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="E70" t="s">
-        <v>227</v>
-      </c>
-      <c r="F70" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>229</v>
-      </c>
-      <c r="B71" t="s">
-        <v>230</v>
-      </c>
-      <c r="C71" t="n">
+        <v>159</v>
+      </c>
+      <c r="B71" t="n">
         <v>650</v>
       </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="E71" t="s">
-        <v>231</v>
-      </c>
-      <c r="F71" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>233</v>
-      </c>
-      <c r="B72" t="s">
-        <v>234</v>
-      </c>
-      <c r="C72" t="n">
+        <v>162</v>
+      </c>
+      <c r="B72" t="n">
         <v>16</v>
       </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>235</v>
-      </c>
-      <c r="B73" t="s">
-        <v>236</v>
-      </c>
-      <c r="C73" t="n">
+        <v>163</v>
+      </c>
+      <c r="B73" t="n">
         <v>44</v>
       </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="E73" t="s">
-        <v>138</v>
-      </c>
-      <c r="F73" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>238</v>
-      </c>
-      <c r="B74" t="s">
-        <v>239</v>
-      </c>
-      <c r="C74" t="n">
+        <v>165</v>
+      </c>
+      <c r="B74" t="n">
         <v>173</v>
       </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="E74" t="s">
-        <v>221</v>
-      </c>
-      <c r="F74" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>241</v>
-      </c>
-      <c r="B75" t="s">
-        <v>242</v>
-      </c>
-      <c r="C75" t="n">
+        <v>167</v>
+      </c>
+      <c r="B75" t="n">
         <v>523</v>
       </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="E75" t="s">
-        <v>243</v>
-      </c>
-      <c r="F75" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>245</v>
-      </c>
-      <c r="B76" t="s">
-        <v>246</v>
-      </c>
-      <c r="C76" t="n">
+        <v>170</v>
+      </c>
+      <c r="B76" t="n">
         <v>123</v>
       </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
-      </c>
-      <c r="F76" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>248</v>
-      </c>
-      <c r="B77" t="s">
-        <v>249</v>
-      </c>
-      <c r="C77" t="n">
+        <v>172</v>
+      </c>
+      <c r="B77" t="n">
         <v>3200</v>
       </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="E77" t="s">
-        <v>250</v>
-      </c>
-      <c r="F77" t="s">
-        <v>251</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>252</v>
-      </c>
-      <c r="B78" t="s">
-        <v>253</v>
-      </c>
-      <c r="C78" t="n">
+        <v>175</v>
+      </c>
+      <c r="B78" t="n">
         <v>2977</v>
       </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="E78" t="s">
-        <v>254</v>
-      </c>
-      <c r="F78" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>256</v>
-      </c>
-      <c r="B79" t="s">
-        <v>257</v>
-      </c>
-      <c r="C79" t="n">
+        <v>178</v>
+      </c>
+      <c r="B79" t="n">
         <v>175</v>
       </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" t="s">
-        <v>258</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>259</v>
-      </c>
-      <c r="B80" t="s">
-        <v>260</v>
-      </c>
-      <c r="C80" t="n">
+        <v>180</v>
+      </c>
+      <c r="B80" t="n">
         <v>30</v>
       </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E80" t="s">
-        <v>261</v>
-      </c>
-      <c r="F80" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>262</v>
-      </c>
-      <c r="B81" t="s">
-        <v>263</v>
-      </c>
-      <c r="C81" t="n">
+        <v>182</v>
+      </c>
+      <c r="B81" t="n">
         <v>87</v>
       </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>265</v>
-      </c>
-      <c r="B82" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" t="n">
+        <v>184</v>
+      </c>
+      <c r="B82" t="n">
         <v>725</v>
       </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="E82" t="s">
-        <v>267</v>
-      </c>
-      <c r="F82" t="s">
-        <v>268</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>269</v>
-      </c>
-      <c r="B83" t="s">
-        <v>270</v>
-      </c>
-      <c r="C83" t="n">
+        <v>187</v>
+      </c>
+      <c r="B83" t="n">
         <v>207</v>
       </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
       <c r="D83" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="E83" t="s">
-        <v>85</v>
-      </c>
-      <c r="F83" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>271</v>
-      </c>
-      <c r="B84" t="s">
-        <v>272</v>
-      </c>
-      <c r="C84" t="n">
+        <v>188</v>
+      </c>
+      <c r="B84" t="n">
         <v>289</v>
       </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="E84" t="s">
-        <v>273</v>
-      </c>
-      <c r="F84" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>274</v>
-      </c>
-      <c r="B85" t="s">
-        <v>275</v>
-      </c>
-      <c r="C85" t="n">
+        <v>190</v>
+      </c>
+      <c r="B85" t="n">
         <v>255</v>
       </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="E85" t="s">
-        <v>247</v>
-      </c>
-      <c r="F85" t="s">
-        <v>276</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
